--- a/WeeklyReport.xlsx
+++ b/WeeklyReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,50 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">تاریخ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">روز </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ساعات پیش بینی </t>
+  </si>
+  <si>
+    <t>ساعات کاری</t>
+  </si>
+  <si>
+    <t>دوشنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">سه شنبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">پنج شنبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جمعه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شنبه </t>
+  </si>
+  <si>
+    <t>یکشنبه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">دوشنبه </t>
+  </si>
+  <si>
+    <t xml:space="preserve">چهارشبه </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +69,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,13 +100,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -331,12 +391,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="4" width="22.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>990903</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>990904</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>990905</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>990906</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>990907</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>990908</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>990909</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>990910</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WeeklyReport.xlsx
+++ b/WeeklyReport.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
